--- a/data/Medium_level_generated_dataset.xlsx
+++ b/data/Medium_level_generated_dataset.xlsx
@@ -453,170 +453,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Describe a time when you identified a significant error in your data analysis. How did you handle it?</t>
+          <t>Explain the concept of 'data wrangling' (or 'data munging').</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>When answering this question, it is important to showcase your problem-solving and critical thinking skills. Start by explaining how you discovered the error, whether it was through cross-checking data, noticing inconsistencies, or receiving feedback. Then, discuss the steps you took to rectify the error, such as re-analyzing the data, consulting with colleagues or supervisors, or seeking external resources. Highlight your ability to remain calm under pressure and your attention to detail during the process. Additionally, emphasize the importance of communication, collaboration, and continuous learning in order to prevent future errors and improve data analysis practices. Provide specific examples and quantify the impact of your actions on the overall project or organization.</t>
+          <t>Data wrangling, also known as data munging, is the process of transforming and mapping data from its raw form into another format with the intent of making it more appropriate and valuable for a variety of downstream purposes such as analytics. This process involves cleaning, structuring, and enriching raw data into a desired format for better decision-making in less time.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Technical</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Can you discuss a project where you had to learn a new data analysis tool or software quickly?</t>
+          <t>How would you define a 'good' dataset?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Learning new data analysis tools or software quickly is a valuable skill in the field. When answering this question, emphasize your ability to adapt to new technologies and pick them up efficiently. Discuss a specific project where you had to learn a new tool or software within a short timeframe and explain how you approached the learning process. Describe any resources you used, such as online tutorials, documentation, or training materials, and highlight any technical skills or prior knowledge that helped you grasp the new tool more easily. Additionally, mention how you applied your newly acquired knowledge in a practical setting, and the positive outcomes or improvements that resulted from using the new data analysis tool or software.</t>
+          <t>A 'good' dataset is one that is clean, well-structured, comprehensive, relevant to the problem at hand, and of sufficient size and quality for analysis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Technical</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Describe your process for ensuring data integrity and accuracy.</t>
+          <t>Describe a time when you identified a significant error in your data analysis. How did you handle it?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ensuring data integrity and accuracy is crucial in data analysis. When addressing this question, outline your systematic approach to maintaining data quality. Start by discussing how you validate and clean the data by performing checks for inconsistencies, missing values, outliers, and duplications. Mention any automated or manual methods you use to ensure data accuracy, such as double-checking data entry, employing data validation techniques, and performing data quality audits. Emphasize the importance of data documentation and metadata management to ensure transparency and reproducibility. Additionally, mention any data governance practices you follow, such as data profiling, data lineage, and data stewardship. Finally, discuss how you continuously monitor and validate data throughout the analysis process to maintain data integrity.</t>
+          <t>When answering this question, explain how you noticed the error, what specific steps you took to address it, and the impact it had on the overall analysis or decision-making process.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Technical</t>
+          <t>Behavioural</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Explain a time when your analysis influenced a major decision. What was the outcome?</t>
+          <t>Can you discuss a project where you had to learn a new data analysis tool or software quickly?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>When discussing this question, highlight your ability to provide meaningful insights that drive decision-making. Describe a specific project or situation where your analysis was instrumental in influencing a significant decision. Explain the context of the decision, the specific insights you provided, and how your analysis supported or validated those insights. Mention any challenges or opposition you faced and discuss how you effectively communicated and presented your analysis to decision-makers. Finally, describe the positive outcome resulting from your analysis, such as improved efficiency, cost savings, increased revenue, or enhanced decision-making processes. Provide quantifiable results or metrics whenever possible to demonstrate the impact of your analysis on the final decision and the overall success of the project or organization.</t>
+          <t>When answering this question, share details about the project, the new tool or software you had to learn, how you quickly acquired the necessary skills, and how you successfully applied the tool in the project.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Behavioural</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>How do you stay updated with the latest trends and tools in data analysis?</t>
+          <t>Describe your process for ensuring data integrity and accuracy.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>To answer this question, discuss the proactive steps you take to stay current with developments in data analysis. Mention professional resources you utilize, such as attending industry conferences, workshops, or webinars and joining relevant professional organizations or online communities. Highlight your commitment to continuous learning by mentioning participation in data analysis courses, reading books or articles, or following influential blogs or thought leaders in the field. Emphasize your ability to adapt and apply new knowledge by discussing practical examples where you successfully incorporated new trends or tools into your work. Showcase your enthusiasm for the field, eagerness to explore emerging technologies, and dedication to professional growth within data analysis.</t>
+          <t>When answering this question, explain the specific steps you take to ensure data integrity and accuracy, including data validation techniques, data cleaning processes, and quality assurance measures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Behavioural</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Describe a project where you had to combine data from different teams or departments. What challenges did you face?</t>
+          <t>Explain a time when your analysis influenced a major decision. What was the outcome?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Combining data from different teams or departments can present unique challenges. When addressing this question, explain the project or situation where you had to integrate data from diverse sources. Identify and discuss the specific challenges you encountered, such as data inconsistencies, incompatible formats, differing data quality standards, or communication barriers between teams. Highlight your ability to collaborate effectively by detailing the strategies you employed to address these challenges, such as establishing data sharing agreements, conducting data validation processes, or facilitating cross-functional meetings. Emphasize the importance of clear communication, diplomacy, and problem-solving skills in navigating interdepartmental or cross-team data integration. Finally, mention the positive outcomes resulting from successfully integrating the data, such as improved decision-making or better overall understanding of the subject matter.</t>
+          <t>When answering this question, provide details about the specific decision, your role in the analysis, how your findings influenced the decision-making process, and the positive outcome that resulted from your analysis.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Behavioural</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Share an experience where you had to interpret and analyze data from unfamiliar industries or domains.</t>
+          <t>What is the difference between qualitative and quantitative data?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Interpreting and analyzing data from unfamiliar industries or domains can be challenging. When answering this question, describe a specific project or situation where you had to work with data outside your comfort zone. Discuss the steps you took to familiarize yourself with the industry or domain, such as conducting research, studying relevant literature or reports, or seeking guidance from subject matter experts. Highlight your ability to extract meaningful insights from the data despite your initial lack of domain knowledge by showcasing your analytical skills and adaptability. Provide specific examples of how you successfully translated your data analysis into actionable business or project outcomes in the unfamiliar industry or domain. Demonstrate your ability to quickly grasp new concepts and apply your analytical expertise to deliver valuable insights.</t>
+          <t>Qualitative data is non-numerical and descriptive, often collected through methods like interviews or observations, and can include text and images. Quantitative data is numerical and is often collected through measurements or experiments, allowing for statistical analysis.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Technical</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tell us about a time when you improved a process or efficiency using data analysis.</t>
+          <t>What are some common biases in data analysis, and how do you avoid them?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>When responding to this question, provide a specific example of a project or situation where you used data analysis to identify areas for improvement and implemented changes to enhance process efficiency. Describe the process or area you analyzed, the data you collected and analyzed, and the specific insights you gained from the analysis. Outline the steps you took to improve the process or efficiency, whether it involved streamlining workflows, optimizing resource allocation, or implementing automation. Highlight the positive outcomes resulting from your data-driven improvements, such as reduced costs, increased productivity, faster turnaround times, or improved customer satisfaction. Quantify the impact of your changes wherever possible to demonstrate the value of your data analysis and process improvement efforts.</t>
+          <t>Common biases include confirmation bias, sampling bias, and survivorship bias. To avoid these biases, ensure proper data collection techniques, random sampling methods, and consider the impact of missing data or selection bias.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Technical</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Describe a project where time constraints significantly affected your analysis. How did you manage it?</t>
+          <t>Describe a project where you had to combine data from different teams or departments. What challenges did you face?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>When facing time constraints that significantly impact your analysis, it is important to showcase your ability to prioritize, work efficiently, and make effective decisions. Describe a project or situation where you had limited time for analysis. Discuss how you assessed the available time and resources, identified the critical aspects of the analysis, and set clear priorities. Explain any techniques or tools you employed to streamline your analysis and save time while ensuring accuracy, such as leveraging automation, using prebuilt models or templates, or focusing on key variables. Emphasize your ability to remain focused under pressure and maintain attention to detail. Discuss how you effectively communicated and managed expectations with relevant stakeholders to ensure timely delivery and mitigate any potential impacts of the time constraints on the overall project.</t>
+          <t>When answering this question, discuss the specific challenges you encountered when merging data from different teams or departments, such as data format inconsistencies or communication barriers. Explain how you successfully navigated these challenges and ensured the accuracy and integrity of the combined data.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Behavioural</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Share an instance where you had to balance data accuracy with the urgency of decision-making.</t>
+          <t xml:space="preserve">How do you stay updated with the latest trends and tools in data analysis? </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Balancing data accuracy with the urgency of decision-making is a critical skill in data analysis. When addressing this question, discuss a specific situation where you were faced with the pressure to make quick decisions based on limited or incomplete data. Explain how you approached the challenge by outlining the framework or criteria you used to evaluate the available data and determine the level of accuracy required for the decision. Discuss any strategies you employed to mitigate the risks associated with the urgency, such as conducting sensitivity analyses, validating assumptions, or seeking additional data sources. Highlight your ability to communicate effectively with stakeholders, managing their expectations, and clearly conveying the limitations and potential impact of the data uncertainty on the decision-making process.</t>
+          <t>When answering this question, mention specific resources you use, such as online courses, webinars, professional conferences, or industry publications. Show your enthusiasm for continuous learning and how you actively seek out new knowledge and stay updated with the latest trends and tools in data analysis.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Behavioral</t>
+          <t>Behavioural</t>
         </is>
       </c>
     </row>
